--- a/biology/Botanique/Leucas/Leucas.xlsx
+++ b/biology/Botanique/Leucas/Leucas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucas est un genre de plantes de la famille des Lamiaceae. Il a été décrit par Robert Brown en 1810 dans Prodromus Florae Novae Hollandiae. L'espèce type est Leucas flaccida.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 août 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 août 2015) :
 Leucas abyssinica (Benth.) Briq.
 Leucas aequistylosa Sebald
 Leucas aggerestris (Wild) Sebald
@@ -650,9 +666,9 @@
 Leucas wightiana Wall. ex Benth.
 Leucas wilsonii Sebald
 Leucas zeylanica (L.) W.T.Aiton
-Selon ITIS      (22 août 2015)[3] :
+Selon ITIS      (22 août 2015) :
 Leucas martinicensis (Jacq.) W.T. Aiton
-Selon NCBI  (22 août 2015)[4] :
+Selon NCBI  (22 août 2015) :
 Leucas abyssinica
 variété Leucas abyssinica var. argyrophylla
 variété Leucas abyssinica var. brachycalyx
@@ -700,7 +716,7 @@
 Leucas volkensii
 variété Leucas volkensii var. parviflora
 Leucas zeylanica
-Selon The Plant List            (22 août 2015)[5] :
+Selon The Plant List            (22 août 2015) :
 Leucas abyssinica (Benth.) Briq.
 Leucas aequistylosa Sebald
 Leucas aggerestris (Wild) Sebald
@@ -812,7 +828,7 @@
 Leucas wightiana Wall. ex Benth.
 Leucas wilsonii Sebald
 Leucas zeylanica (L.) W.T.Aiton
-Selon Tropicos                                           (22 août 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 Leucas abyssinica (Benth.) Briq.
 Leucas acanthocalycina Sebald
 Leucas acloquei H. Lév.
